--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf2-Nrp1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H2">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J2">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N2">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q2">
-        <v>39.53029316513633</v>
+        <v>56.26577828350267</v>
       </c>
       <c r="R2">
-        <v>355.772638486227</v>
+        <v>506.3920045515241</v>
       </c>
       <c r="S2">
-        <v>0.01288771570408985</v>
+        <v>0.01195236945378806</v>
       </c>
       <c r="T2">
-        <v>0.01288771570408985</v>
+        <v>0.01195236945378805</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H3">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J3">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q3">
-        <v>35.30888752194166</v>
+        <v>21.56967966356666</v>
       </c>
       <c r="R3">
-        <v>317.779987697475</v>
+        <v>194.1271169721</v>
       </c>
       <c r="S3">
-        <v>0.01151144774741516</v>
+        <v>0.00458198194717584</v>
       </c>
       <c r="T3">
-        <v>0.01151144774741516</v>
+        <v>0.00458198194717584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.747119</v>
+        <v>0.456404</v>
       </c>
       <c r="H4">
-        <v>2.241357</v>
+        <v>1.369212</v>
       </c>
       <c r="I4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="J4">
-        <v>0.03096954854571248</v>
+        <v>0.01914960767004715</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q4">
-        <v>20.15324165627267</v>
+        <v>12.31131868536267</v>
       </c>
       <c r="R4">
-        <v>181.379174906454</v>
+        <v>110.801868168264</v>
       </c>
       <c r="S4">
-        <v>0.006570385094207465</v>
+        <v>0.002615256269083256</v>
       </c>
       <c r="T4">
-        <v>0.006570385094207465</v>
+        <v>0.002615256269083256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J5">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N5">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q5">
-        <v>1044.777032617072</v>
+        <v>2434.323274490876</v>
       </c>
       <c r="R5">
-        <v>9402.993293553647</v>
+        <v>21908.90947041788</v>
       </c>
       <c r="S5">
-        <v>0.3406195171455667</v>
+        <v>0.5171159456831168</v>
       </c>
       <c r="T5">
-        <v>0.3406195171455667</v>
+        <v>0.5171159456831168</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J6">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q6">
         <v>933.2062015345527</v>
@@ -818,10 +818,10 @@
         <v>8398.855813810975</v>
       </c>
       <c r="S6">
-        <v>0.3042450550120886</v>
+        <v>0.1982381766960748</v>
       </c>
       <c r="T6">
-        <v>0.3042450550120886</v>
+        <v>0.1982381766960748</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>59.23857700000001</v>
       </c>
       <c r="I7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="J7">
-        <v>0.8185184181638298</v>
+        <v>0.8285024587002443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q7">
         <v>532.6457845201439</v>
@@ -880,10 +880,10 @@
         <v>4793.812060681294</v>
       </c>
       <c r="S7">
-        <v>0.1736538460061745</v>
+        <v>0.1131483363210527</v>
       </c>
       <c r="T7">
-        <v>0.1736538460061745</v>
+        <v>0.1131483363210527</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>10.892997</v>
       </c>
       <c r="I8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J8">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N8">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q8">
-        <v>192.117259703363</v>
+        <v>447.6318890316911</v>
       </c>
       <c r="R8">
-        <v>1729.055337330267</v>
+        <v>4028.68700128522</v>
       </c>
       <c r="S8">
-        <v>0.0626343097067998</v>
+        <v>0.09508909109984789</v>
       </c>
       <c r="T8">
-        <v>0.0626343097067998</v>
+        <v>0.09508909109984788</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>10.892997</v>
       </c>
       <c r="I9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J9">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q9">
         <v>171.601224548275</v>
@@ -1004,10 +1004,10 @@
         <v>1544.411020934475</v>
       </c>
       <c r="S9">
-        <v>0.05594564622157477</v>
+        <v>0.03645273018688164</v>
       </c>
       <c r="T9">
-        <v>0.05594564622157477</v>
+        <v>0.03645273018688164</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>10.892997</v>
       </c>
       <c r="I10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="J10">
-        <v>0.1505120332904577</v>
+        <v>0.1523479336297086</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q10">
         <v>97.94477225272603</v>
@@ -1066,10 +1066,10 @@
         <v>881.5029502745341</v>
       </c>
       <c r="S10">
-        <v>0.03193207736208317</v>
+        <v>0.0208061123429791</v>
       </c>
       <c r="T10">
-        <v>0.03193207736208317</v>
+        <v>0.0208061123429791</v>
       </c>
     </row>
   </sheetData>
